--- a/docs/mcode-r4/obf-KarnofskyPerformanceStatus.xlsx
+++ b/docs/mcode-r4/obf-KarnofskyPerformanceStatus.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2683" uniqueCount="486">
   <si>
     <t>Path</t>
   </si>
@@ -395,14 +395,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest|ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest)
 </t>
   </si>
   <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
+    <t>The plan, proposal or order that is fulfilled in whole or in part by this event</t>
+  </si>
+  <si>
+    <t>The plan, proposal or order that is fulfilled in whole or in part by this event. For example, a MedicationRequest may require a patient to have laboratory test performed before it is dispensed.</t>
   </si>
   <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
@@ -424,11 +424,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-MedicationStatement|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Procedure)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Procedure)
 </t>
   </si>
   <si>
-    <t>A larger event of which this particular Observation is a component or step. For example, an observation as part of a procedure.</t>
+    <t>The larger procedure that this particular observation is a component or step</t>
+  </si>
+  <si>
+    <t>The larger procedure that this particular observation is a component or step.</t>
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
@@ -1176,7 +1179,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-device)
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1398,7 +1401,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
+    <t xml:space="preserve">Reference(DocumentReference|Media|QuestionnaireResponse|http://hl7.org/fhir/us/mcode/StructureDefinition/obf-Observation)
 </t>
   </si>
   <si>
@@ -1697,7 +1700,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="114.390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.05078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3173,10 +3176,10 @@
         <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3241,16 +3244,16 @@
         <v>45</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -3261,7 +3264,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3287,16 +3290,16 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
@@ -3321,13 +3324,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3345,7 +3348,7 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>55</v>
@@ -3360,19 +3363,19 @@
         <v>45</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3380,7 +3383,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3403,19 +3406,19 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3440,13 +3443,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3464,7 +3467,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3488,10 +3491,10 @@
         <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3499,11 +3502,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3522,19 +3525,19 @@
         <v>56</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3559,13 +3562,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3583,7 +3586,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>55</v>
@@ -3598,27 +3601,27 @@
         <v>45</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3641,13 +3644,13 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3698,7 +3701,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3722,7 +3725,7 @@
         <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>45</v>
@@ -3733,7 +3736,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3762,7 +3765,7 @@
         <v>101</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>103</v>
@@ -3803,19 +3806,19 @@
         <v>45</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3839,7 +3842,7 @@
         <v>45</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>45</v>
@@ -3850,7 +3853,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3873,19 +3876,19 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3922,17 +3925,17 @@
         <v>45</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3953,10 +3956,10 @@
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -3967,10 +3970,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>45</v>
@@ -3992,13 +3995,13 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4049,7 +4052,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -4084,7 +4087,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4107,13 +4110,13 @@
         <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4164,7 +4167,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4188,7 +4191,7 @@
         <v>45</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -4199,7 +4202,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4228,7 +4231,7 @@
         <v>101</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>103</v>
@@ -4269,19 +4272,19 @@
         <v>45</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4305,7 +4308,7 @@
         <v>45</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -4316,7 +4319,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4342,23 +4345,23 @@
         <v>68</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>45</v>
@@ -4400,7 +4403,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4421,10 +4424,10 @@
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>45</v>
@@ -4435,7 +4438,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4458,16 +4461,16 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4517,7 +4520,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4538,10 +4541,10 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4552,7 +4555,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4578,21 +4581,21 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>45</v>
@@ -4634,7 +4637,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4655,10 +4658,10 @@
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -4669,7 +4672,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4692,17 +4695,17 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4751,7 +4754,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4772,10 +4775,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4786,7 +4789,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4809,19 +4812,19 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4870,7 +4873,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4891,10 +4894,10 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -4905,7 +4908,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4928,19 +4931,19 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4989,7 +4992,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -5010,10 +5013,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -5024,7 +5027,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5047,19 +5050,19 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5108,7 +5111,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5123,19 +5126,19 @@
         <v>45</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
@@ -5143,7 +5146,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5166,16 +5169,16 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5225,7 +5228,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5246,13 +5249,13 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -5260,11 +5263,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5283,19 +5286,19 @@
         <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5344,7 +5347,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5359,19 +5362,19 @@
         <v>45</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
@@ -5379,11 +5382,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5402,19 +5405,19 @@
         <v>56</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5463,7 +5466,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5478,19 +5481,19 @@
         <v>45</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
@@ -5498,7 +5501,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5521,16 +5524,16 @@
         <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5580,7 +5583,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5601,13 +5604,13 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
@@ -5615,7 +5618,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5638,17 +5641,17 @@
         <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5697,7 +5700,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5712,19 +5715,19 @@
         <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
@@ -5732,7 +5735,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5755,19 +5758,19 @@
         <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5792,11 +5795,11 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5814,7 +5817,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5823,7 +5826,7 @@
         <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>45</v>
@@ -5832,24 +5835,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5872,19 +5875,19 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5909,13 +5912,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -5933,7 +5936,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5942,7 +5945,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>45</v>
@@ -5957,7 +5960,7 @@
         <v>97</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5968,11 +5971,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5991,19 +5994,19 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6028,13 +6031,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -6052,7 +6055,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6070,24 +6073,24 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6110,19 +6113,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6171,7 +6174,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6192,10 +6195,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6206,7 +6209,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6229,16 +6232,16 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6268,7 +6271,7 @@
       </c>
       <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6286,7 +6289,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6304,24 +6307,24 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6344,19 +6347,19 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6381,13 +6384,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6405,7 +6408,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6426,10 +6429,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6440,7 +6443,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6463,16 +6466,16 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6522,7 +6525,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6540,24 +6543,24 @@
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6580,16 +6583,16 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6639,7 +6642,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6657,24 +6660,24 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6697,19 +6700,19 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6758,7 +6761,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6770,7 +6773,7 @@
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
@@ -6779,10 +6782,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6793,7 +6796,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6816,13 +6819,13 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6873,7 +6876,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6897,7 +6900,7 @@
         <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6908,7 +6911,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6937,7 +6940,7 @@
         <v>101</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>103</v>
@@ -6990,7 +6993,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7014,7 +7017,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -7025,11 +7028,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7051,10 +7054,10 @@
         <v>100</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>103</v>
@@ -7109,7 +7112,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7144,7 +7147,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7167,13 +7170,13 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7224,7 +7227,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7233,7 +7236,7 @@
         <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>45</v>
@@ -7245,10 +7248,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7259,7 +7262,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7282,13 +7285,13 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7339,7 +7342,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7348,7 +7351,7 @@
         <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>45</v>
@@ -7360,10 +7363,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7374,7 +7377,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7397,19 +7400,19 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7434,13 +7437,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7458,7 +7461,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7476,13 +7479,13 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7493,7 +7496,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7516,19 +7519,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7553,13 +7556,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7577,7 +7580,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7595,13 +7598,13 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7612,7 +7615,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7635,17 +7638,17 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7694,7 +7697,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7718,7 +7721,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7729,7 +7732,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7752,13 +7755,13 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7809,7 +7812,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7830,10 +7833,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7844,7 +7847,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7867,16 +7870,16 @@
         <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7926,7 +7929,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7947,10 +7950,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7961,7 +7964,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7984,16 +7987,16 @@
         <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8043,7 +8046,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8064,10 +8067,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8078,7 +8081,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8101,19 +8104,19 @@
         <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8162,7 +8165,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8174,7 +8177,7 @@
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
@@ -8183,10 +8186,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8197,7 +8200,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8220,13 +8223,13 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8277,7 +8280,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8301,7 +8304,7 @@
         <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8312,7 +8315,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8341,7 +8344,7 @@
         <v>101</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>103</v>
@@ -8394,7 +8397,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8418,7 +8421,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8429,11 +8432,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8455,10 +8458,10 @@
         <v>100</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>103</v>
@@ -8513,7 +8516,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8548,7 +8551,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8571,19 +8574,19 @@
         <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8608,13 +8611,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8632,7 +8635,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>55</v>
@@ -8650,16 +8653,16 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>45</v>
@@ -8667,7 +8670,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8690,19 +8693,19 @@
         <v>56</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8751,7 +8754,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8769,24 +8772,24 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8809,19 +8812,19 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8846,13 +8849,13 @@
         <v>45</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>45</v>
@@ -8870,7 +8873,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8879,7 +8882,7 @@
         <v>55</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>45</v>
@@ -8894,7 +8897,7 @@
         <v>97</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8905,11 +8908,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8928,19 +8931,19 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -8965,13 +8968,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -8989,7 +8992,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -9007,24 +9010,24 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9047,19 +9050,19 @@
         <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9108,7 +9111,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9129,10 +9132,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
@@ -9143,7 +9146,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9166,13 +9169,13 @@
         <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9223,7 +9226,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9247,7 +9250,7 @@
         <v>45</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
@@ -9258,7 +9261,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9287,7 +9290,7 @@
         <v>101</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>103</v>
@@ -9340,7 +9343,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9364,7 +9367,7 @@
         <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -9375,11 +9378,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9401,10 +9404,10 @@
         <v>100</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>103</v>
@@ -9459,7 +9462,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9494,7 +9497,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9517,13 +9520,13 @@
         <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9574,7 +9577,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9583,7 +9586,7 @@
         <v>55</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>45</v>
@@ -9595,10 +9598,10 @@
         <v>45</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -9609,7 +9612,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9632,13 +9635,13 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9689,7 +9692,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -9698,7 +9701,7 @@
         <v>55</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>45</v>
@@ -9710,10 +9713,10 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>45</v>
@@ -9724,7 +9727,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9747,19 +9750,19 @@
         <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -9784,13 +9787,13 @@
         <v>45</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
@@ -9808,7 +9811,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -9826,13 +9829,13 @@
         <v>45</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>45</v>
@@ -9843,7 +9846,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9866,19 +9869,19 @@
         <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -9903,13 +9906,13 @@
         <v>45</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>45</v>
@@ -9927,7 +9930,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -9945,13 +9948,13 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -9962,7 +9965,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9985,17 +9988,17 @@
         <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10044,7 +10047,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10068,7 +10071,7 @@
         <v>45</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10079,7 +10082,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10102,13 +10105,13 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10159,7 +10162,7 @@
         <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -10180,10 +10183,10 @@
         <v>45</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>

--- a/docs/mcode-r4/obf-KarnofskyPerformanceStatus.xlsx
+++ b/docs/mcode-r4/obf-KarnofskyPerformanceStatus.xlsx
@@ -159,7 +159,7 @@
     <t>obf-KarnofskyPerformanceStatus</t>
   </si>
   <si>
-    <t>The Karnofsky Performance Status (KPS) is a tool used to measure a patient's functional status. It can be used to compare the effectiveness of different therapies and to help assess the prognosis of certain patients, such as those with certain cancers. The KPS score ranges from 0 to 100 in intervals of 10. Higher scores are associated with better functional status, with 100 representing no symptoms or evidence of disease, and 0 representing death [PMID: 23870327].</t>
+    <t>The Karnofsky Performance Status (KPS) is a tool used to measure a patient's functional status. It can be used to compare the effectiveness of different therapies and to help assess the prognosis of certain patients, such as those with certain cancers. The KPS score ranges from 0 to 100 in intervals of 10. Higher scores are associated with better functional status, with 100 representing no symptoms or evidence of disease, and 0 representing death.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
